--- a/biology/Botanique/Santalales/Santalales.xlsx
+++ b/biology/Botanique/Santalales/Santalales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Santalales forment un ordre de plantes dicotylédones dont la définition varie avec le progrès des découvertes scientifiques.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Classification de Cronquist (1981)
-En classification classique de Cronquist (1981)[1] l'ordre des Santalales comprenait 10 familles:
+          <t>Classification de Cronquist (1981)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En classification classique de Cronquist (1981) l'ordre des Santalales comprenait 10 familles:
 ordre Santalales
 famille Balanophoracées
 famille Dipentodontacées
@@ -525,9 +542,43 @@
 famille Olacacées
 famille Opiliacées
 famille Santalacées (famille du thesium)
-famille Viscacées (famille du gui)
-Classification APG (1998) et APG II (2003)
-En classification phylogénétique APG (1998)[2] et classification phylogénétique APG II (2003)[3], l'ordre des Santalales comprenait 5-6 familles :
+famille Viscacées (famille du gui)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Santalales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Santalales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Classification APG (1998) et APG II (2003)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG (1998) et classification phylogénétique APG II (2003), l'ordre des Santalales comprenait 5-6 familles :
 ordre Santalales
 famille Loranthaceae
 famille Misodendraceae
@@ -535,8 +586,43 @@
 famille Opiliaceae
 famille Santalaceae (incl. Viscacées)
 Le Angiosperm Phylogeny Website [24 janvier 2004] accepte additionnellement la famille Schoepfiaceae.
-Classification APG III (2009)
-En classification phylogénétique APG III (2009)[4] l'ordre des Santalalescomprend 7 familles :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Santalales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Santalales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification APG III (2009)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique APG III (2009) l'ordre des Santalalescomprend 7 familles :
 ordre Santalales
 famille Balanophoraceae Rich. (1822)
 famille Loranthaceae Juss. (1808)
@@ -544,9 +630,43 @@
 famille Santalaceae R.Br. (1810)
 famille Olacaceae R.Br. (1818)
 famille Opiliaceae Valeton (1886)
-famille Schoepfiaceae Blume (1850)
-Classification APG IV (2016)
-En classification phylogénétique APG IV (2016)[5][6] l'ordre des Santalales comprend 18 familles :
+famille Schoepfiaceae Blume (1850)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Santalales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Santalales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification APG IV (2016)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique APG IV (2016) l'ordre des Santalales comprend 18 familles :
 ordre Santalales
 famille Aptandraceae
 famille Balanophoraceae
